--- a/基本シフト表集計.xlsx
+++ b/基本シフト表集計.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Macroecology\Desktop\シフト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD9892A-F070-41A9-BD59-A5385BCFF08F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6453C-F72B-4578-88D9-4CD94271EDCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{5AFAB8A7-990C-4E79-BF55-8822824F1595}"/>
   </bookViews>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC57525-C8D5-4134-9D3A-C05857D2F913}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1102,82 +1102,13 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>20.5</v>
-      </c>
-      <c r="B27" s="2">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2">
-        <v>4</v>
-      </c>
-      <c r="E27" s="2">
-        <v>4</v>
-      </c>
-      <c r="F27" s="2">
-        <v>4</v>
-      </c>
-      <c r="G27" s="2">
-        <v>4</v>
-      </c>
-      <c r="H27" s="2">
-        <v>4</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>21</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>21.5</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
